--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>会员基本信息录入</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>剩余次数</t>
+  </si>
+  <si>
+    <t>手工费</t>
   </si>
 </sst>
 </file>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,12 +106,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -116,8 +157,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,118 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,19 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,163 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,17 +494,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +531,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,149 +575,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,11 +725,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -736,6 +745,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,6 +755,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1096,16 +1111,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
@@ -1119,120 +1134,114 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:13">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:14">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -47,7 +47,7 @@
     <t>卡名称</t>
   </si>
   <si>
-    <t>余额</t>
+    <t>卡余额</t>
   </si>
   <si>
     <t>品项
@@ -78,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -119,25 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,43 +129,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,8 +142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +160,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,22 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,7 +190,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,49 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,133 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,37 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +511,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -553,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,145 +575,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -16,9 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>会员基本信息录入</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>会员基本信息录入
+生日类型：填数字（1：阳历，2：农历）</t>
   </si>
   <si>
     <t>会员持有的卡项</t>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>生日类型</t>
   </si>
   <si>
     <t>生日</t>
@@ -105,23 +109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +132,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -150,16 +170,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +224,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,75 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -276,13 +280,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +364,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,31 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,121 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,13 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,23 +531,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,19 +591,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,116 +612,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,13 +733,16 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -751,17 +758,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1111,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
@@ -1138,76 +1148,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:14">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" s="2" customFormat="1" spans="1:7">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" s="2" customFormat="1" spans="1:7">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -1216,7 +1229,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" s="2" customFormat="1" spans="1:7">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -1225,7 +1238,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" s="2" customFormat="1" spans="1:7">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -1234,7 +1247,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" s="2" customFormat="1" spans="1:7">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28000" windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
   </si>
   <si>
     <t>品项
-填1或是2(1代表项目，2代表套盒)</t>
+填1或是2(1代表套盒，2代表项目)</t>
   </si>
   <si>
     <t>项目或是套盒名称</t>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,16 +109,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,75 +146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +162,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,15 +210,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +237,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -280,19 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,163 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +477,66 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,21 +558,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -527,197 +571,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,29 +743,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,54 +776,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1119,15 +1119,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="3" customWidth="1"/>
@@ -1151,11 +1151,11 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15"/>
@@ -1165,28 +1165,28 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -1212,49 +1212,49 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1277,7 +1277,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1294,7 +1294,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15200"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
 生日类型：填数字（1：阳历，2：农历）</t>
   </si>
   <si>
-    <t>会员持有的卡项</t>
+    <t xml:space="preserve">
+会员持有的卡项</t>
   </si>
   <si>
     <t>会员持有的套盒或是项目
@@ -81,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,6 +124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -132,7 +140,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,108 +230,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,25 +287,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,139 +419,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,39 +480,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,11 +501,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,79 +577,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,61 +658,61 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,18 +722,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -743,35 +744,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,12 +1122,12 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.9615384615385" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
@@ -1137,13 +1135,16 @@
     <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="17.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.5384615384615" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.5384615384615" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="21.5384615384615" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="15.7692307692308" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1151,60 +1152,62 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="108" customHeight="1" spans="1:15">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1212,55 +1215,55 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,47 +34,58 @@
     <t>会员姓名</t>
   </si>
   <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>生日类型</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>账户余额</t>
-  </si>
-  <si>
-    <t>赠送余额</t>
+    <t>电话
+(必须11位手机号码)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生日类型                 </t>
+  </si>
+  <si>
+    <t>生日                    
+(比如2018-3-1或者2018/3/1)</t>
+  </si>
+  <si>
+    <t>账户余额           
+（必须数字）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赠送余额          
+（必须数字）
+</t>
   </si>
   <si>
     <t>卡名称</t>
   </si>
   <si>
-    <t>卡余额</t>
+    <t>卡余额      
+（必须数字）</t>
   </si>
   <si>
     <t>品项
-填1或是2(1代表套盒，2代表项目)</t>
+(填1或是21代表套盒，2代表项目)</t>
   </si>
   <si>
     <t>项目或是套盒名称</t>
   </si>
   <si>
-    <t>类别(身体，头部，减肥面部等)</t>
-  </si>
-  <si>
-    <t>价格(赠送的项目，价格就填0)</t>
-  </si>
-  <si>
-    <t>总次数</t>
-  </si>
-  <si>
-    <t>剩余次数</t>
-  </si>
-  <si>
-    <t>手工费</t>
+    <t>类别
+(身体，头部，减肥面部等)</t>
+  </si>
+  <si>
+    <t>价格
+(赠送的项目，价格就填0，必须数字)</t>
+  </si>
+  <si>
+    <t>总次数
+（必须数字）</t>
+  </si>
+  <si>
+    <t>剩余次数
+（必须数字）</t>
+  </si>
+  <si>
+    <t>手工费
+(必须数字)</t>
   </si>
 </sst>
 </file>
@@ -82,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,6 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -124,6 +143,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -132,30 +167,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,26 +220,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,33 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,49 +292,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,133 +430,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,6 +539,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,168 +583,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,13 +756,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,9 +774,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,26 +1126,27 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.9615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5769230769231" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.6538461538462" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.3076923076923" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.4615384615385" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.2307692307692" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5384615384615" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.9230769230769" style="2" customWidth="1"/>
     <col min="10" max="10" width="26.5384615384615" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.5384615384615" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="15.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.1923076923077" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.3076923076923" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.2307692307692" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1153,19 +1159,19 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
@@ -1177,87 +1183,58 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+    <row r="3" s="2" customFormat="1" spans="2:4">
+      <c r="B3" s="3"/>
+      <c r="D3" s="9"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+    <row r="4" s="2" customFormat="1" spans="2:2">
+      <c r="B4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+    <row r="5" s="2" customFormat="1" spans="2:2">
+      <c r="B5" s="3"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+    <row r="6" s="2" customFormat="1" spans="2:2">
+      <c r="B6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+    <row r="7" s="2" customFormat="1" spans="2:2">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t>品项
-(填1或是21代表套盒，2代表项目)</t>
+(填1或是2。1代表套盒，2代表项目)</t>
   </si>
   <si>
     <t>项目或是套盒名称</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,14 +125,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +158,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -174,14 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -198,6 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -206,8 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,31 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,25 +292,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,19 +400,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,133 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,15 +491,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +519,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,6 +539,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,176 +583,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>会员基本信息录入
 生日类型：填数字（1：阳历，2：农历）</t>
@@ -86,6 +86,24 @@
   <si>
     <t>手工费
 (必须数字)</t>
+  </si>
+  <si>
+    <t>张三（样板）</t>
+  </si>
+  <si>
+    <t>13522222222</t>
+  </si>
+  <si>
+    <t>金卡</t>
+  </si>
+  <si>
+    <t>肩颈理疗套</t>
+  </si>
+  <si>
+    <t>面部基础护理</t>
+  </si>
+  <si>
+    <t>脑轻松</t>
   </si>
 </sst>
 </file>
@@ -95,10 +113,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +133,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="3" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,14 +147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,40 +168,85 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +258,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -196,70 +274,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,61 +323,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,109 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,8 +514,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,152 +613,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,7 +786,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -770,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1126,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
@@ -1159,19 +1190,19 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
@@ -1192,10 +1223,10 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -1220,15 +1251,114 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="2:4">
-      <c r="B3" s="3"/>
-      <c r="D3" s="9"/>
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>29739</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9">
+        <v>7</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1980</v>
+      </c>
+      <c r="M3" s="9">
+        <v>10</v>
+      </c>
+      <c r="N3" s="9">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:2">
-      <c r="B4" s="3"/>
+    <row r="4" s="2" customFormat="1" spans="1:15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9">
+        <v>12</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1680</v>
+      </c>
+      <c r="M4" s="9">
+        <v>12</v>
+      </c>
+      <c r="N4" s="9">
+        <v>5</v>
+      </c>
+      <c r="O4" s="9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:2">
-      <c r="B5" s="3"/>
+    <row r="5" s="2" customFormat="1" spans="1:15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9">
+        <v>11</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1980</v>
+      </c>
+      <c r="M5" s="9">
+        <v>12</v>
+      </c>
+      <c r="N5" s="9">
+        <v>12</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:2">
       <c r="B6" s="3"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>会员基本信息录入
 生日类型：填数字（1：阳历，2：农历）</t>
@@ -29,6 +29,10 @@
     <t>会员持有的套盒或是项目
 套盒类别：填数字(5:头部，6：面部，7：身体，8：减肥，9：保养品，10：其他)
 项目类别：填数字(11:头部，12：面部，13：眼部，14：身体，15：减肥，16：私密，17：仪器类，18：大项目，19：修饰美容，20：其他)</t>
+  </si>
+  <si>
+    <t>会员编号
+（可不填）</t>
   </si>
   <si>
     <t>会员姓名</t>
@@ -112,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -153,8 +157,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,76 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,33 +241,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,181 +327,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +512,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,17 +572,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,22 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,152 +617,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,35 +778,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1155,222 +1156,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="25.5769230769231" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.6538461538462" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.3076923076923" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.4615384615385" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.2307692307692" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.9230769230769" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.5384615384615" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.1923076923077" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.3076923076923" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.2307692307692" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="39.4230769230769" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5769230769231" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.6538461538462" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.3076923076923" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.4615384615385" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.2307692307692" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.9230769230769" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.5384615384615" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.1923076923077" style="2" customWidth="1"/>
+    <col min="13" max="13" width="35" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.3076923076923" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.2307692307692" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:15">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" s="2" customFormat="1" spans="2:16">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="12">
         <v>29739</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="7">
         <v>1000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7">
         <v>2000</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="7">
         <v>1980</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="7">
         <v>10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="7">
         <v>6</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
+    <row r="4" s="2" customFormat="1" spans="2:16">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="7">
         <v>12</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="7">
         <v>1680</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="7">
         <v>12</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="7">
         <v>5</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
+    <row r="5" s="2" customFormat="1" spans="2:16">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7">
         <v>11</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="7">
         <v>1980</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="7">
         <v>12</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="7">
         <v>12</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:2">
-      <c r="B6" s="3"/>
+    <row r="6" s="2" customFormat="1" spans="3:3">
+      <c r="C6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:2">
-      <c r="B7" s="3"/>
+    <row r="7" s="2" customFormat="1" spans="3:3">
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:P1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16600"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>会员基本信息录入
 生日类型：填数字（1：阳历，2：农历）</t>
@@ -116,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -137,43 +137,120 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="3" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="3" tint="-0.5"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,93 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,43 +321,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +417,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,115 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,65 +519,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -598,6 +539,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,153 +573,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,28 +778,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,54 +811,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1154,31 +1154,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="39.4230769230769" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.5769230769231" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.6538461538462" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.3076923076923" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.4615384615385" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.2307692307692" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.425" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.575" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.65" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.4583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.2333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="40" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.9230769230769" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.5384615384615" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.1923076923077" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.925" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.5416666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.1916666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="35" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.3076923076923" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.2307692307692" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.3083333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.2333333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="25" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
@@ -1192,8 +1196,8 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="13"/>
@@ -1208,161 +1212,161 @@
       <c r="P1" s="14"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="2:16">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
       <c r="E3" s="12">
         <v>29739</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>1000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>200</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="10">
         <v>2000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>7</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="10">
         <v>1980</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>10</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>6</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:16">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>12</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="10">
         <v>1680</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="10">
         <v>12</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>5</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:16">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <v>2</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>11</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="10">
         <v>1980</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <v>12</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1385,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1393,7 +1397,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1402,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1410,7 +1414,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -115,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -152,6 +152,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,22 +188,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,39 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,30 +264,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,6 +321,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,175 +423,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,15 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,11 +532,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,16 +568,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,25 +598,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -623,7 +623,7 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,31 +1163,31 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="39.425" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.575" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.65" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.3083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.4583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.2333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.925" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="26.5416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.1916666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="35" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.3083333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.2333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="95" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="167" customHeight="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="73" customHeight="1" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>

--- a/会员信息及会员持有卡项套盒项目表.xlsx
+++ b/会员信息及会员持有卡项套盒项目表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -26,9 +26,30 @@
 会员持有的卡项</t>
   </si>
   <si>
-    <t>会员持有的套盒或是项目
-套盒类别：填数字(5:头部，6：面部，7：身体，8：减肥，9：保养品，10：其他)
+    <r>
+      <t xml:space="preserve">会员持有的套盒或是项目   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>套盒类别：填数字(5:头部，6：面部，7：身体，8：减肥，9：保养品，10：其他)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 项目类别：填数字(11:头部，12：面部，13：眼部，14：身体，15：减肥，16：私密，17：仪器类，18：大项目，19：修饰美容，20：其他)</t>
+    </r>
   </si>
   <si>
     <t>会员编号
@@ -73,7 +94,7 @@
   </si>
   <si>
     <t>类别
-(身体，头部，减肥面部等)</t>
+(身体，头部面部等)</t>
   </si>
   <si>
     <t>价格
@@ -92,7 +113,7 @@
 (必须数字)</t>
   </si>
   <si>
-    <t>张三（样板）</t>
+    <t>张三(样板)</t>
   </si>
   <si>
     <t>13522222222</t>
@@ -115,12 +136,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,20 +150,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="3" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -151,6 +209,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,15 +231,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,116 +316,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,13 +344,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor rgb="FFBFCB55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,55 +404,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,121 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +547,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,59 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +603,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,143 +667,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,7 +814,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,29 +822,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -861,6 +899,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00BFCB55"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1163,218 +1206,218 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.5416666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="95" customHeight="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="75" customHeight="1" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="73" customHeight="1" spans="1:16">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="2:16">
-      <c r="B3" s="10" t="s">
+    <row r="3" s="3" customFormat="1" spans="2:16">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>29739</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>1000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>200</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>2000</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="11">
         <v>7</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <v>1980</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="11">
         <v>10</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="11">
         <v>6</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:16">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
+    <row r="4" s="3" customFormat="1" spans="2:16">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
         <v>2</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>12</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>1680</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>12</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="11">
         <v>5</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:16">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10">
+    <row r="5" s="3" customFormat="1" spans="2:16">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
         <v>2</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>11</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="11">
         <v>1980</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>12</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="11">
         <v>12</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="3:3">
-      <c r="C6" s="3"/>
+    <row r="6" s="3" customFormat="1" spans="3:3">
+      <c r="C6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:3">
-      <c r="C7" s="3"/>
+    <row r="7" s="3" customFormat="1" spans="3:3">
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
